--- a/AnalysisGyro60-3.xlsx
+++ b/AnalysisGyro60-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="4575" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="4575" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="subject-Lopburi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="162">
   <si>
     <t>ข้อมูลทั่วไป</t>
   </si>
@@ -805,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +928,13 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1578,7 +1585,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,10 +1661,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,6 +1674,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1681,7 +1688,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor auto="1"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -2207,7 +2225,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,12 +3569,12 @@
     <mergeCell ref="I1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="X42:XFD44 Q17:XFD17 Q16:V16 W14:XFD16 A16:P17 A45:XFD1048576 A42:V44 A15:O15 A18:XFD41 A3:XFD13 A14:V14 S15:V15">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:R15">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",P15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4745,7 +4763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5139,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,72 +5264,113 @@
       <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="64">
-        <v>21453</v>
-      </c>
-      <c r="D4" s="64">
-        <v>24916</v>
-      </c>
-      <c r="E4" s="64">
-        <v>33089</v>
-      </c>
-      <c r="F4" s="64">
-        <v>26337</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>67</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5">
-        <f ca="1">TODAY()-C4</f>
-        <v>22119</v>
-      </c>
-      <c r="D5" s="5">
-        <f ca="1">TODAY()-D4</f>
-        <v>18656</v>
-      </c>
-      <c r="E5" s="5">
-        <f ca="1">TODAY()-E4</f>
-        <v>10483</v>
-      </c>
-      <c r="F5" s="5">
-        <f ca="1">TODAY()-F4</f>
-        <v>17235</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5323,22 +5382,22 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5346,310 +5405,594 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42818</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43183</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43101</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43189</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43244</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>43150</v>
+      </c>
+      <c r="I8" s="5">
+        <v>43116</v>
+      </c>
+      <c r="J8" s="5">
+        <v>43043</v>
+      </c>
+      <c r="K8" s="5">
+        <v>42982</v>
+      </c>
+      <c r="L8" s="5">
+        <v>43316</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42881</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43237</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43237</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43312</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43328</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>43222</v>
+      </c>
+      <c r="I9" s="5">
+        <v>43208</v>
+      </c>
+      <c r="J9" s="5">
+        <v>43220</v>
+      </c>
+      <c r="K9" s="5">
+        <v>43216</v>
+      </c>
+      <c r="L9" s="5">
+        <v>43328</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42950</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43301</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43305</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43368</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43375</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="H10" s="5">
+        <v>43278</v>
+      </c>
+      <c r="I10" s="5">
+        <v>43297</v>
+      </c>
+      <c r="J10" s="5">
+        <v>43276</v>
+      </c>
+      <c r="K10" s="5">
+        <v>43241</v>
+      </c>
+      <c r="L10" s="5">
+        <v>43375</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="5">
-        <v>43315</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43301</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43305</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43368</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43375</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" ref="B11:K11" si="0">DATEDIF(B8,B9,"M") &amp; " m " &amp; DATEDIF(B8,B9,"MD") &amp; " d"</f>
+        <v>2 m 2 d</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1 m 23 d</v>
+      </c>
+      <c r="D11" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>4 m 16 d</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>4 m 1 d</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2 m 23 d</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>43278</v>
-      </c>
-      <c r="I11" s="5">
-        <v>43297</v>
-      </c>
-      <c r="J11" s="5">
-        <v>43276</v>
-      </c>
-      <c r="K11" s="5">
-        <v>43241</v>
-      </c>
-      <c r="L11" s="5">
-        <v>43375</v>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2 m 13 d</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 m 2 d</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>5 m 26 d</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>7 m 22 d</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f>DATEDIF(L8,L9,"M") &amp; " m " &amp; DATEDIF(L8,L9,"MD") &amp; " d"</f>
+        <v>0 m 12 d</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="63">
+        <v>6</v>
+      </c>
+      <c r="C17" s="63">
+        <v>4</v>
+      </c>
+      <c r="D17" s="63">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <v>25</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>26</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="63">
-        <v>6</v>
-      </c>
-      <c r="C18" s="63">
-        <v>4</v>
-      </c>
-      <c r="D18" s="63">
-        <v>2</v>
-      </c>
-      <c r="E18" s="63">
-        <v>0</v>
-      </c>
-      <c r="F18" s="63">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E27" t="s">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5660,19 +6003,24 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="V46:XFD48 O20:XFD20 O19:T19 U16:XFD19 Q18:T18 A19:N20 A18:M18 A16:T17 M49:XFD1048576 M46:T48 A21:XFD22 M23:XFD45 A23:L26 A28:L1048576 B27:L27 A7:XFD15 A3:XFD5">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NA">
+  <conditionalFormatting sqref="V45:XFD47 O19:XFD19 O18:T18 U15:XFD18 Q17:T17 A18:N19 A17:M17 A15:T16 M48:XFD1048576 M45:T47 A20:XFD21 M22:XFD44 A27:L1048576 B26:L26 B9:XFD9 A3:XFD8 A22:L25 A10:XFD14">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:P18">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",N18)))</formula>
+  <conditionalFormatting sqref="N17:P17">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",N17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",A26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",A27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5701,7 +6049,7 @@
       <c r="B1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="91" t="s">
         <v>146</v>
       </c>
       <c r="D1" s="59"/>
@@ -5730,12 +6078,12 @@
     <row r="2" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="94"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="77">
         <v>-66</v>
       </c>
@@ -5792,7 +6140,7 @@
       <c r="P3" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="36" t="s">
         <v>36</v>
       </c>
@@ -5836,10 +6184,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
-        <v>1</v>
-      </c>
-      <c r="B5" s="96"/>
+      <c r="A5" s="93">
+        <v>1</v>
+      </c>
+      <c r="B5" s="94"/>
       <c r="C5" s="56" t="s">
         <v>152</v>
       </c>
@@ -5884,10 +6232,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+      <c r="A6" s="93">
         <v>2</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="56" t="s">
         <v>153</v>
       </c>
@@ -5932,10 +6280,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95">
+      <c r="A7" s="93">
         <v>3</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="56" t="s">
         <v>154</v>
       </c>
@@ -5980,10 +6328,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
+      <c r="A8" s="93">
         <v>4</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="56" t="s">
         <v>155</v>
       </c>
@@ -6028,10 +6376,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="22.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="95">
+      <c r="A9" s="93">
         <v>5</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="58" t="s">
         <v>156</v>
       </c>
